--- a/tasks/hosts.xlsx
+++ b/tasks/hosts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hosts" sheetId="1" r:id="rId1"/>
